--- a/biology/Médecine/Antonio_Palocci/Antonio_Palocci.xlsx
+++ b/biology/Médecine/Antonio_Palocci/Antonio_Palocci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Palocci Filho, né le 4 octobre 1960 à Ribeirão Preto, est un médecin et un homme politique brésilien, membre du Parti des travailleurs (PT).
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Palocci est l'un des membres fondateurs du PT, dont il dirige la section de São Paulo de 1997 à 1998.
 Membre de l'Assemblée législative de l'État de São Paulo de 1990 à 1992, il est maire de Ribeirão Preto de 1993 à 1996 et de 2001 à 2002. Il est membre de la Chambre des députés du Brésil une première fois de 1999 à 2000. 
 En janvier 2003, il est nommé ministre des finances par le président Luiz Inácio Lula da Silva et conserve ce poste jusqu'au 27 mars 2006, date à laquelle il est remplacé par Guido Mantega. Il est député une seconde fois de 2007 à 2010, avant d'être nommé par la présidente Dilma Rousseff chef du cabinet en janvier 2011. Il démissionne le 7 juin de la même année.
-Le 26 septembre 2016, il est arrêté par la police fédérale et placé en détention dans le cadre de l'opération Lava Jato[1].
+Le 26 septembre 2016, il est arrêté par la police fédérale et placé en détention dans le cadre de l'opération Lava Jato.
 Sur les autres projets Wikimedia :
 Antonio Palocci, sur Wikimedia Commons
 </t>
